--- a/U3ROFS_0316/U3ROFS_all.xlsx
+++ b/U3ROFS_0316/U3ROFS_all.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Máté\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Máté\Desktop\Desk\repo\U3ROFSOsGyak\U3ROFS_0316\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47926907-B4CB-4C49-96AE-96187F04DDA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD4A81C-FA70-4D89-9DFF-1AB078309B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6870" yWindow="4905" windowWidth="28800" windowHeight="15345" xr2:uid="{B7950DEB-A2A2-4AD1-83F3-ECCA15EC3179}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{B7950DEB-A2A2-4AD1-83F3-ECCA15EC3179}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -524,7 +524,7 @@
   <dimension ref="A1:BY62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P49" sqref="P49"/>
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
